--- a/APICreate.xlsx
+++ b/APICreate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099D7D39-7651-43CD-8BEA-8190F860056F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820B43A2-D1C4-4EF6-BC87-EE4F53A57E08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API_NewCase" sheetId="2" r:id="rId1"/>
@@ -245,7 +245,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K12" totalsRowShown="0">
-  <autoFilter ref="A1:K12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:K12" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -570,26 +576,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" customWidth="1"/>
-    <col min="7" max="7" width="65.21875" customWidth="1"/>
-    <col min="8" max="8" width="70.88671875" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="65.28515625" customWidth="1"/>
+    <col min="8" max="8" width="70.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -647,7 +653,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>17</v>
       </c>
@@ -658,7 +664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>20</v>
       </c>
@@ -669,7 +675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>23</v>
       </c>
@@ -680,7 +686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>26</v>
       </c>
@@ -691,7 +697,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>29</v>
       </c>
@@ -702,7 +708,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>32</v>
       </c>
@@ -713,7 +719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>35</v>
       </c>
@@ -724,7 +730,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>36</v>
       </c>
@@ -735,7 +741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>39</v>
       </c>
@@ -746,7 +752,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>42</v>
       </c>
@@ -771,22 +777,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="70" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
     <col min="7" max="7" width="38" customWidth="1"/>
     <col min="8" max="8" width="42" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -821,7 +827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -844,7 +850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>17</v>
       </c>
